--- a/InputData/elec/DRCo/Demand Response Costs.xlsx
+++ b/InputData/elec/DRCo/Demand Response Costs.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7215" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
-    <sheet name="DRCo-ACpUDRC" sheetId="5" r:id="rId2"/>
-    <sheet name="DRCo-SoDRbP" sheetId="7" r:id="rId3"/>
-    <sheet name="Sector shares" sheetId="6" r:id="rId4"/>
-    <sheet name="Estimated cost" sheetId="9" r:id="rId5"/>
+    <sheet name="LBNL Phase 3" sheetId="10" r:id="rId2"/>
+    <sheet name="Sector shares" sheetId="6" r:id="rId3"/>
+    <sheet name="DRCo-ACpUDRC" sheetId="5" r:id="rId4"/>
+    <sheet name="DRCo-SoDRbP" sheetId="7" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>Source:</t>
   </si>
@@ -116,42 +116,6 @@
     <t>We do not have any data on DR services provided by government buildings, so we</t>
   </si>
   <si>
-    <t>assign them a 0% share.  We assign them a cost identical to that assigned to the</t>
-  </si>
-  <si>
-    <t>"industry" actor (e.g. industrial and commercial buildings).</t>
-  </si>
-  <si>
-    <t>Currency Year Adjustment</t>
-  </si>
-  <si>
-    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
-  </si>
-  <si>
-    <t>We adjust 2016 dollars to 2017 dollars using the following conversion factor:</t>
-  </si>
-  <si>
-    <t>"This results in an equilibrium price of $20–$40/kWh-year from system benefits."</t>
-  </si>
-  <si>
-    <t>(2017 study, dollar values assumed current for that year, absent other indications.)</t>
-  </si>
-  <si>
-    <t>Per LBNL with larger excerpt shown below.</t>
-  </si>
-  <si>
-    <t>kWh-year</t>
-  </si>
-  <si>
-    <t>MWh-year</t>
-  </si>
-  <si>
-    <t>The upper bound of the range is used.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">See the tab "Definition of kWh-year" for more on the meaning of these units. </t>
-  </si>
-  <si>
     <t>Estimated by visual approximations based on the graph below (Figure 44 from the LBNL Demand Response report)</t>
   </si>
   <si>
@@ -164,19 +128,79 @@
     <t>Lawrence Berkeley National Laboratory</t>
   </si>
   <si>
-    <t>2025 California Demand Response Potential Study.  Final Report on Phase 2 Results.</t>
-  </si>
-  <si>
-    <t>March 1, 2017.</t>
-  </si>
-  <si>
-    <t>Report download -- https://www.cpuc.ca.gov/WorkArea/DownloadAsset.aspx?id=6442452698</t>
-  </si>
-  <si>
-    <t>Further information -- http://www.cpuc.ca.gov/General.aspx?id=10622.</t>
-  </si>
-  <si>
-    <t>Estimated price in LBNL study</t>
+    <t>BTM batteries enough to address a significant portion of present day grid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We use this conclusion as the basis for selecting the equivalent price of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTM batteries as the price for Demand Response Capacity, </t>
+  </si>
+  <si>
+    <t>California Demand Response Potential Study Phase 3: The Potential for Shift Through 2030</t>
+  </si>
+  <si>
+    <r>
+      <t>Slides For California Demand Response Potential Study Phase 3: The Potential For Shift Demand Response</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF573779"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>https://drrc.lbl.gov/news/article/slides-demand-response-potential</t>
+  </si>
+  <si>
+    <t>Per the conclusion slide (30, shown at right):</t>
+  </si>
+  <si>
+    <t>"In Shift DR , California has 4 6 GWh of virtual storage that is cheaper than</t>
+  </si>
+  <si>
+    <t>challenges."</t>
+  </si>
+  <si>
+    <t>become affordable, unlocking a Shift</t>
+  </si>
+  <si>
+    <t>potential that dwarfs other flexible loads.</t>
+  </si>
+  <si>
+    <t>At slide 15, it states:</t>
+  </si>
+  <si>
+    <t>At ~$150/kWh-yr , BTM batteries</t>
+  </si>
+  <si>
+    <t>(Shown at right)</t>
+  </si>
+  <si>
+    <t>Convert kWh to MWh</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+  <si>
+    <t>MWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assign them a 0% share.  </t>
+  </si>
+  <si>
+    <t>Feb. 28, 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency Year </t>
+  </si>
+  <si>
+    <t>No currency year is identified. We take the value to be 2017.</t>
   </si>
 </sst>
 </file>
@@ -187,7 +211,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +408,30 @@
       <color indexed="30"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF573779"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -781,7 +829,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -883,13 +931,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -910,11 +956,11 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="67"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="68">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -959,6 +1005,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="54"/>
     <cellStyle name="Hyperlink 3" xfId="55"/>
     <cellStyle name="Hyperlink 4" xfId="56"/>
@@ -1000,15 +1047,96 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>35723</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76251</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5217323" y="152400"/>
+          <a:ext cx="3926728" cy="2828962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>597443</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>42900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5131343" y="3243164"/>
+          <a:ext cx="3988844" cy="2952886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>420125</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>96141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1028,87 +1156,6 @@
         <a:xfrm>
           <a:off x="0" y="3810000"/>
           <a:ext cx="7344800" cy="6382641"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>140012</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>162986</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2038350"/>
-          <a:ext cx="7150412" cy="4601636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1064</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>48855</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6858000"/>
-          <a:ext cx="7621064" cy="8811855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1453,170 +1500,391 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B4" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="11"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1.0209999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>32</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23">
+        <f>B22*1000</f>
+        <v>150000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.86328125" customWidth="1"/>
+    <col min="2" max="2" width="26.73046875" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <f>B4/$B$7</f>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="9">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" ref="C5:C6" si="0">B5/$B$7</f>
+        <v>0.22727272727272727</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.31818181818181818</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="6">
+        <f>SUM(B4:B6)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7">
+        <f>C4</f>
+        <v>0.45454545454545453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7">
+        <f>SUM(C5:C6)</f>
+        <v>0.54545454545454541</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1624,27 +1892,27 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
-        <f>'Estimated cost'!$C$6</f>
-        <v>30000</v>
+      <c r="B2" s="6">
+        <f>'LBNL Phase 3'!$B$23</f>
+        <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7">
-        <f>'Estimated cost'!$C$6</f>
-        <v>30000</v>
+      <c r="B3" s="6">
+        <f>'LBNL Phase 3'!$B$23</f>
+        <v>150000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7">
-        <f>'Estimated cost'!$C$6</f>
-        <v>30000</v>
+      <c r="B4" s="6">
+        <f>'LBNL Phase 3'!$B$23</f>
+        <v>150000</v>
       </c>
     </row>
   </sheetData>
@@ -1652,7 +1920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1663,13 +1931,13 @@
       <selection activeCell="B4" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.73046875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1685,7 +1953,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <f>'Sector shares'!B14</f>
         <v>0.54545454545454541</v>
       </c>
@@ -1694,7 +1962,7 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <f>'Sector shares'!B13</f>
         <v>0.45454545454545453</v>
       </c>
@@ -1702,192 +1970,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4">
-        <f>B4/$B$7</f>
-        <v>0.45454545454545453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="10">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" ref="C5:C6" si="0">B5/$B$7</f>
-        <v>0.22727272727272727</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="10">
-        <v>7</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>0.31818181818181818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="7">
-        <f>SUM(B4:B6)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8">
-        <f>C4</f>
-        <v>0.45454545454545453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="8">
-        <f>SUM(C5:C6)</f>
-        <v>0.54545454545454541</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <f>B6*1000</f>
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>